--- a/emon/2025/05-mei/02_kertas-kerja/data/emon_db_pegawai.xlsx
+++ b/emon/2025/05-mei/02_kertas-kerja/data/emon_db_pegawai.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
   <si>
     <t xml:space="preserve">nip</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t xml:space="preserve">nama_response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_pmo</t>
   </si>
   <si>
     <t xml:space="preserve">340018094</t>
@@ -412,7 +415,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,6 +425,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,10 +701,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -717,265 +724,340 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
         <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="3" t="s">
         <v>69</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1002,319 +1084,319 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="47.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="47.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B33" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="B36" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="B38" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1335,26 +1417,26 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="B1" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
         <v>746</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>95</v>
+      <c r="B2" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
